--- a/Code/Results/Cases/Case_0_221/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_221/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9776562064876064</v>
+        <v>1.028494635305535</v>
       </c>
       <c r="D2">
-        <v>0.9872293095555084</v>
+        <v>1.029744293220024</v>
       </c>
       <c r="E2">
-        <v>0.995104621497815</v>
+        <v>1.037409224207617</v>
       </c>
       <c r="F2">
-        <v>1.001931477871218</v>
+        <v>1.045952842655858</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045308537838492</v>
+        <v>1.026982128717641</v>
       </c>
       <c r="J2">
-        <v>1.00052639218914</v>
+        <v>1.033646640152938</v>
       </c>
       <c r="K2">
-        <v>0.9988694749568574</v>
+        <v>1.032557315927483</v>
       </c>
       <c r="L2">
-        <v>1.006632580676713</v>
+        <v>1.040200191076355</v>
       </c>
       <c r="M2">
-        <v>1.013363969566549</v>
+        <v>1.048719638666159</v>
       </c>
       <c r="N2">
-        <v>1.00194725442803</v>
+        <v>1.035114536942882</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9836900231549188</v>
+        <v>1.029756007235823</v>
       </c>
       <c r="D3">
-        <v>0.9922870754838571</v>
+        <v>1.030853427006506</v>
       </c>
       <c r="E3">
-        <v>1.000229344682755</v>
+        <v>1.038528627343567</v>
       </c>
       <c r="F3">
-        <v>1.007514440286089</v>
+        <v>1.047157444064425</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045689703852671</v>
+        <v>1.026958505582768</v>
       </c>
       <c r="J3">
-        <v>1.004635410175461</v>
+        <v>1.034547047154769</v>
       </c>
       <c r="K3">
-        <v>1.003019605244597</v>
+        <v>1.033473849825907</v>
       </c>
       <c r="L3">
-        <v>1.010859291841695</v>
+        <v>1.041128576365803</v>
       </c>
       <c r="M3">
-        <v>1.01805206691984</v>
+        <v>1.049734762505478</v>
       </c>
       <c r="N3">
-        <v>1.006062107691202</v>
+        <v>1.036016222625933</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9874988560863973</v>
+        <v>1.030572211910802</v>
       </c>
       <c r="D4">
-        <v>0.9954861486546613</v>
+        <v>1.031571387647306</v>
       </c>
       <c r="E4">
-        <v>1.003469838270518</v>
+        <v>1.039253043647128</v>
       </c>
       <c r="F4">
-        <v>1.011041081561001</v>
+        <v>1.047936460196186</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045912020327254</v>
+        <v>1.026940799041256</v>
       </c>
       <c r="J4">
-        <v>1.007227839870408</v>
+        <v>1.035129224846839</v>
       </c>
       <c r="K4">
-        <v>1.005639358916409</v>
+        <v>1.03406660368445</v>
       </c>
       <c r="L4">
-        <v>1.013526565022164</v>
+        <v>1.041728809471719</v>
       </c>
       <c r="M4">
-        <v>1.021008052111465</v>
+        <v>1.050390608920692</v>
       </c>
       <c r="N4">
-        <v>1.008658218933671</v>
+        <v>1.036599227077103</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9890783160152781</v>
+        <v>1.030915349706467</v>
       </c>
       <c r="D5">
-        <v>0.9968142057134119</v>
+        <v>1.031873285871108</v>
       </c>
       <c r="E5">
-        <v>1.004814853741784</v>
+        <v>1.039557610383361</v>
       </c>
       <c r="F5">
-        <v>1.012503981887743</v>
+        <v>1.048263853896648</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045999719583305</v>
+        <v>1.026932774768032</v>
       </c>
       <c r="J5">
-        <v>1.008302487936777</v>
+        <v>1.0353738668146</v>
       </c>
       <c r="K5">
-        <v>1.006725663410598</v>
+        <v>1.034315725586305</v>
       </c>
       <c r="L5">
-        <v>1.014632362048767</v>
+        <v>1.041981030161588</v>
       </c>
       <c r="M5">
-        <v>1.022232925564414</v>
+        <v>1.050666086534226</v>
       </c>
       <c r="N5">
-        <v>1.009734393123559</v>
+        <v>1.036844216464519</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.989342267474553</v>
+        <v>1.030972964433163</v>
       </c>
       <c r="D6">
-        <v>0.9970362274193598</v>
+        <v>1.031923979910697</v>
       </c>
       <c r="E6">
-        <v>1.005039696215877</v>
+        <v>1.039608749808981</v>
       </c>
       <c r="F6">
-        <v>1.012748478261912</v>
+        <v>1.048318818630509</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046014108417652</v>
+        <v>1.026931393393354</v>
       </c>
       <c r="J6">
-        <v>1.008482053193606</v>
+        <v>1.035414937123782</v>
       </c>
       <c r="K6">
-        <v>1.006907195679278</v>
+        <v>1.034357550072004</v>
       </c>
       <c r="L6">
-        <v>1.014817138839272</v>
+        <v>1.042023372275737</v>
       </c>
       <c r="M6">
-        <v>1.022437562625809</v>
+        <v>1.050712326373008</v>
       </c>
       <c r="N6">
-        <v>1.009914213383649</v>
+        <v>1.036885345098252</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9875200450897089</v>
+        <v>1.03057679691093</v>
       </c>
       <c r="D7">
-        <v>0.9955039593457674</v>
+        <v>1.031575421359072</v>
       </c>
       <c r="E7">
-        <v>1.00348787734554</v>
+        <v>1.039257113194444</v>
       </c>
       <c r="F7">
-        <v>1.011060705206601</v>
+        <v>1.047940835256951</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045913214734819</v>
+        <v>1.026940694102428</v>
       </c>
       <c r="J7">
-        <v>1.007242258263164</v>
+        <v>1.035132494177989</v>
       </c>
       <c r="K7">
-        <v>1.005653932401282</v>
+        <v>1.034069932744272</v>
       </c>
       <c r="L7">
-        <v>1.013541400868727</v>
+        <v>1.041732180116628</v>
       </c>
       <c r="M7">
-        <v>1.021024488020613</v>
+        <v>1.050394290809066</v>
       </c>
       <c r="N7">
-        <v>1.0086726578022</v>
+        <v>1.036602501051078</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9797157987871191</v>
+        <v>1.028920920619624</v>
       </c>
       <c r="D8">
-        <v>0.9889543488832021</v>
+        <v>1.030119073608446</v>
       </c>
       <c r="E8">
-        <v>0.996852684723972</v>
+        <v>1.037787514286764</v>
       </c>
       <c r="F8">
-        <v>1.003836594407245</v>
+        <v>1.046360035381099</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045442429060535</v>
+        <v>1.026974645872505</v>
       </c>
       <c r="J8">
-        <v>1.001929223592198</v>
+        <v>1.033951029955483</v>
       </c>
       <c r="K8">
-        <v>1.000286048921537</v>
+        <v>1.032867126674882</v>
       </c>
       <c r="L8">
-        <v>1.008075457851586</v>
+        <v>1.040514046184984</v>
       </c>
       <c r="M8">
-        <v>1.014964846176372</v>
+        <v>1.049062913401597</v>
       </c>
       <c r="N8">
-        <v>1.003352078012587</v>
+        <v>1.035419359013861</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9651801992732663</v>
+        <v>1.026003048490246</v>
       </c>
       <c r="D9">
-        <v>0.9768104404850303</v>
+        <v>1.027554866008168</v>
       </c>
       <c r="E9">
-        <v>0.9845433150854657</v>
+        <v>1.035198512425166</v>
       </c>
       <c r="F9">
-        <v>0.9904067196408335</v>
+        <v>1.043571035760224</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044423553372564</v>
+        <v>1.027015971983489</v>
       </c>
       <c r="J9">
-        <v>0.9920254272758644</v>
+        <v>1.031865670099288</v>
       </c>
       <c r="K9">
-        <v>0.9902913012225247</v>
+        <v>1.030745241268708</v>
       </c>
       <c r="L9">
-        <v>0.997892245050449</v>
+        <v>1.038363706976997</v>
       </c>
       <c r="M9">
-        <v>1.00365738260902</v>
+        <v>1.046709112046345</v>
       </c>
       <c r="N9">
-        <v>0.9934342171695029</v>
+        <v>1.033331037707476</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9548825412326717</v>
+        <v>1.024057648894561</v>
       </c>
       <c r="D10">
-        <v>0.9682502477061489</v>
+        <v>1.025846698304632</v>
       </c>
       <c r="E10">
-        <v>0.9758628853481506</v>
+        <v>1.033472851991469</v>
       </c>
       <c r="F10">
-        <v>0.9809184713283987</v>
+        <v>1.041709328632811</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043612358195168</v>
+        <v>1.027031135448596</v>
       </c>
       <c r="J10">
-        <v>0.985008077415099</v>
+        <v>1.030473019687299</v>
       </c>
       <c r="K10">
-        <v>0.9832174333530256</v>
+        <v>1.029328970030086</v>
       </c>
       <c r="L10">
-        <v>0.9906820609548325</v>
+        <v>1.036927504133633</v>
       </c>
       <c r="M10">
-        <v>0.9956410126064282</v>
+        <v>1.045134651707326</v>
       </c>
       <c r="N10">
-        <v>0.9864069018670342</v>
+        <v>1.031936409572162</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9502591819397223</v>
+        <v>1.023215200068402</v>
       </c>
       <c r="D11">
-        <v>0.9644186296251738</v>
+        <v>1.02510733282491</v>
       </c>
       <c r="E11">
-        <v>0.9719768357740725</v>
+        <v>1.032725685099837</v>
       </c>
       <c r="F11">
-        <v>0.9766669013686173</v>
+        <v>1.040902609248143</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043228609095596</v>
+        <v>1.027034773977178</v>
       </c>
       <c r="J11">
-        <v>0.9818583325945912</v>
+        <v>1.029869396833032</v>
       </c>
       <c r="K11">
-        <v>0.9800442701216937</v>
+        <v>1.028715292661357</v>
       </c>
       <c r="L11">
-        <v>0.9874473111265405</v>
+        <v>1.036304969680405</v>
       </c>
       <c r="M11">
-        <v>0.9920426813764787</v>
+        <v>1.044451632662756</v>
       </c>
       <c r="N11">
-        <v>0.9832526840476005</v>
+        <v>1.031331929504206</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9485152190529673</v>
+        <v>1.022902262387607</v>
       </c>
       <c r="D12">
-        <v>0.9629752045520248</v>
+        <v>1.024832740238272</v>
       </c>
       <c r="E12">
-        <v>0.9705128360489568</v>
+        <v>1.032448160751356</v>
       </c>
       <c r="F12">
-        <v>0.9750646441611928</v>
+        <v>1.040602867859209</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043081070197118</v>
+        <v>1.027035686501887</v>
       </c>
       <c r="J12">
-        <v>0.9806704571331607</v>
+        <v>1.029645093230966</v>
       </c>
       <c r="K12">
-        <v>0.9788478623670178</v>
+        <v>1.028487280471654</v>
       </c>
       <c r="L12">
-        <v>0.9862276403854571</v>
+        <v>1.036073633677478</v>
       </c>
       <c r="M12">
-        <v>0.9906856828737083</v>
+        <v>1.044197737330244</v>
       </c>
       <c r="N12">
-        <v>0.9820631216667632</v>
+        <v>1.031107307365296</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9488905439577255</v>
+        <v>1.022969389294246</v>
       </c>
       <c r="D13">
-        <v>0.9632857620507195</v>
+        <v>1.024891639467976</v>
       </c>
       <c r="E13">
-        <v>0.9708278230107118</v>
+        <v>1.032507690389141</v>
       </c>
       <c r="F13">
-        <v>0.9754094024807421</v>
+        <v>1.040667167497579</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043112945913607</v>
+        <v>1.027035510614369</v>
       </c>
       <c r="J13">
-        <v>0.9809260922251538</v>
+        <v>1.029693211268479</v>
       </c>
       <c r="K13">
-        <v>0.9791053199962608</v>
+        <v>1.028536192831676</v>
       </c>
       <c r="L13">
-        <v>0.9864901055493855</v>
+        <v>1.036123260538399</v>
       </c>
       <c r="M13">
-        <v>0.9909777100650605</v>
+        <v>1.044252207433541</v>
       </c>
       <c r="N13">
-        <v>0.9823191197899087</v>
+        <v>1.031155493735943</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9501155808365965</v>
+        <v>1.023189332858654</v>
       </c>
       <c r="D14">
-        <v>0.9642997362224601</v>
+        <v>1.025084634096511</v>
       </c>
       <c r="E14">
-        <v>0.9718562489356067</v>
+        <v>1.032702744723347</v>
       </c>
       <c r="F14">
-        <v>0.9765349376146749</v>
+        <v>1.040877834374252</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04321651613759</v>
+        <v>1.027034858357287</v>
       </c>
       <c r="J14">
-        <v>0.9817605154628833</v>
+        <v>1.029850857697288</v>
       </c>
       <c r="K14">
-        <v>0.9799457442641852</v>
+        <v>1.028696446439765</v>
       </c>
       <c r="L14">
-        <v>0.9873468702497116</v>
+        <v>1.036285849402063</v>
       </c>
       <c r="M14">
-        <v>0.9919309360106072</v>
+        <v>1.044430649512182</v>
       </c>
       <c r="N14">
-        <v>0.9831547280043459</v>
+        <v>1.031313364040763</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9508667747875024</v>
+        <v>1.023324845314153</v>
       </c>
       <c r="D15">
-        <v>0.9649217589911375</v>
+        <v>1.025203549793659</v>
       </c>
       <c r="E15">
-        <v>0.9724871286749064</v>
+        <v>1.032822924975505</v>
       </c>
       <c r="F15">
-        <v>0.9772253160936714</v>
+        <v>1.041007621231541</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043279663321619</v>
+        <v>1.027034398334308</v>
       </c>
       <c r="J15">
-        <v>0.9822722181613934</v>
+        <v>1.029947976731006</v>
       </c>
       <c r="K15">
-        <v>0.9804611666967142</v>
+        <v>1.028795175303468</v>
       </c>
       <c r="L15">
-        <v>0.9878723092201174</v>
+        <v>1.036386012606237</v>
       </c>
       <c r="M15">
-        <v>0.9925155030256607</v>
+        <v>1.044540568133455</v>
       </c>
       <c r="N15">
-        <v>0.9836671573793808</v>
+        <v>1.031410620994648</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.955185753289462</v>
+        <v>1.024113557553223</v>
       </c>
       <c r="D16">
-        <v>0.9685017886273839</v>
+        <v>1.025895773356799</v>
       </c>
       <c r="E16">
-        <v>0.9761179887532451</v>
+        <v>1.033522440026956</v>
       </c>
       <c r="F16">
-        <v>0.981197491420854</v>
+        <v>1.041762855421732</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043637132131449</v>
+        <v>1.027030832365333</v>
       </c>
       <c r="J16">
-        <v>0.9852146720114473</v>
+        <v>1.030513067449685</v>
       </c>
       <c r="K16">
-        <v>0.9834256050163227</v>
+        <v>1.02936968873603</v>
       </c>
       <c r="L16">
-        <v>0.9908942657671016</v>
+        <v>1.036968805893698</v>
       </c>
       <c r="M16">
-        <v>0.9958770334002935</v>
+        <v>1.045179954624613</v>
       </c>
       <c r="N16">
-        <v>0.9866137898514059</v>
+        <v>1.031976514206965</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9578496086541088</v>
+        <v>1.0246082729397</v>
       </c>
       <c r="D17">
-        <v>0.9707130269704237</v>
+        <v>1.026330061280549</v>
       </c>
       <c r="E17">
-        <v>0.9783604771118319</v>
+        <v>1.033961241038419</v>
       </c>
       <c r="F17">
-        <v>0.9836497828765454</v>
+        <v>1.042236435375054</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043852584979271</v>
+        <v>1.027027812371069</v>
       </c>
       <c r="J17">
-        <v>0.9870298068445384</v>
+        <v>1.030867373189134</v>
       </c>
       <c r="K17">
-        <v>0.9852548176316909</v>
+        <v>1.029729951567668</v>
       </c>
       <c r="L17">
-        <v>0.9927588707892946</v>
+        <v>1.037334201901263</v>
       </c>
       <c r="M17">
-        <v>0.9979506954058379</v>
+        <v>1.045580684701939</v>
       </c>
       <c r="N17">
-        <v>0.988431502384159</v>
+        <v>1.032331323101203</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9593876688578165</v>
+        <v>1.024896824734028</v>
       </c>
       <c r="D18">
-        <v>0.971990846809011</v>
+        <v>1.026583401447354</v>
       </c>
       <c r="E18">
-        <v>0.9796562960847831</v>
+        <v>1.034217191707769</v>
       </c>
       <c r="F18">
-        <v>0.985066467736405</v>
+        <v>1.042512609932154</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043975127953223</v>
+        <v>1.027025768358815</v>
       </c>
       <c r="J18">
-        <v>0.9880779046807534</v>
+        <v>1.031073976336591</v>
       </c>
       <c r="K18">
-        <v>0.9863112279225708</v>
+        <v>1.029940046119396</v>
       </c>
       <c r="L18">
-        <v>0.9938356779362411</v>
+        <v>1.037547268677735</v>
       </c>
       <c r="M18">
-        <v>0.9991480503302556</v>
+        <v>1.045814301583703</v>
       </c>
       <c r="N18">
-        <v>0.98948108863952</v>
+        <v>1.032538219648827</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9599094967668822</v>
+        <v>1.024995212286415</v>
       </c>
       <c r="D19">
-        <v>0.9724245627008526</v>
+        <v>1.02666978859204</v>
       </c>
       <c r="E19">
-        <v>0.9800961104895468</v>
+        <v>1.034304465247008</v>
       </c>
       <c r="F19">
-        <v>0.9855472419468998</v>
+        <v>1.042606768762347</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044016384851921</v>
+        <v>1.027025023461371</v>
       </c>
       <c r="J19">
-        <v>0.9884335092713972</v>
+        <v>1.031144412984824</v>
       </c>
       <c r="K19">
-        <v>0.986669683775104</v>
+        <v>1.030011676083092</v>
       </c>
       <c r="L19">
-        <v>0.9942010467772169</v>
+        <v>1.037619908379397</v>
       </c>
       <c r="M19">
-        <v>0.9995542896725904</v>
+        <v>1.04589393821417</v>
       </c>
       <c r="N19">
-        <v>0.9898371982294708</v>
+        <v>1.03260875632518</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.957565441739039</v>
+        <v>1.024555195440593</v>
       </c>
       <c r="D20">
-        <v>0.9704770286653206</v>
+        <v>1.026283463479275</v>
       </c>
       <c r="E20">
-        <v>0.9781211496135841</v>
+        <v>1.033914161290414</v>
       </c>
       <c r="F20">
-        <v>0.9833881024007942</v>
+        <v>1.042185630596673</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.0438297931666</v>
+        <v>1.027028165602469</v>
       </c>
       <c r="J20">
-        <v>0.9868361689601535</v>
+        <v>1.030829365486001</v>
       </c>
       <c r="K20">
-        <v>0.9850596588212432</v>
+        <v>1.029691302993788</v>
       </c>
       <c r="L20">
-        <v>0.9925599402674484</v>
+        <v>1.037295004847296</v>
       </c>
       <c r="M20">
-        <v>0.9977294796790784</v>
+        <v>1.045537702806141</v>
       </c>
       <c r="N20">
-        <v>0.9882375895117673</v>
+        <v>1.032293261422772</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9497555900377398</v>
+        <v>1.02312456538987</v>
       </c>
       <c r="D21">
-        <v>0.9640017155309341</v>
+        <v>1.025027800880042</v>
       </c>
       <c r="E21">
-        <v>0.9715539824027082</v>
+        <v>1.032645305911632</v>
       </c>
       <c r="F21">
-        <v>0.9762041445461441</v>
+        <v>1.04081580072383</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043186156225108</v>
+        <v>1.027035062542446</v>
       </c>
       <c r="J21">
-        <v>0.9815153036709955</v>
+        <v>1.029804437284025</v>
       </c>
       <c r="K21">
-        <v>0.9796987606564802</v>
+        <v>1.028649257556139</v>
       </c>
       <c r="L21">
-        <v>0.987095085491339</v>
+        <v>1.036237973778487</v>
       </c>
       <c r="M21">
-        <v>0.9916508095328789</v>
+        <v>1.044378108068063</v>
       </c>
       <c r="N21">
-        <v>0.9829091679835871</v>
+        <v>1.031266877705188</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9446899743980005</v>
+        <v>1.02222498510771</v>
       </c>
       <c r="D22">
-        <v>0.9598128017830906</v>
+        <v>1.024238550412036</v>
       </c>
       <c r="E22">
-        <v>0.9673052546214289</v>
+        <v>1.031847564140198</v>
       </c>
       <c r="F22">
-        <v>0.9715531569647732</v>
+        <v>1.039954013453757</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042752496817058</v>
+        <v>1.027036859474112</v>
       </c>
       <c r="J22">
-        <v>0.9780654906488812</v>
+        <v>1.029159495780375</v>
       </c>
       <c r="K22">
-        <v>0.9762247446798938</v>
+        <v>1.027993704835483</v>
       </c>
       <c r="L22">
-        <v>0.9835534680097076</v>
+        <v>1.035572802944274</v>
       </c>
       <c r="M22">
-        <v>0.9877100291813853</v>
+        <v>1.043647915390114</v>
       </c>
       <c r="N22">
-        <v>0.9794544558312825</v>
+        <v>1.030621020310627</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9473907713242915</v>
+        <v>1.022701878816376</v>
       </c>
       <c r="D23">
-        <v>0.9620450831944608</v>
+        <v>1.024656925384118</v>
       </c>
       <c r="E23">
-        <v>0.9695694400620978</v>
+        <v>1.032270459095257</v>
       </c>
       <c r="F23">
-        <v>0.9740320030495694</v>
+        <v>1.04041091308833</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042985176407007</v>
+        <v>1.027036147328315</v>
       </c>
       <c r="J23">
-        <v>0.9799046339514789</v>
+        <v>1.029501442119508</v>
       </c>
       <c r="K23">
-        <v>0.9780766237510548</v>
+        <v>1.028341262046446</v>
       </c>
       <c r="L23">
-        <v>0.9854413969075505</v>
+        <v>1.03592547743583</v>
       </c>
       <c r="M23">
-        <v>0.989810851854672</v>
+        <v>1.044035109926381</v>
       </c>
       <c r="N23">
-        <v>0.9812962109283225</v>
+        <v>1.030963452252783</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9576938929768383</v>
+        <v>1.024579178900318</v>
       </c>
       <c r="D24">
-        <v>0.9705837029908376</v>
+        <v>1.026304518935384</v>
       </c>
       <c r="E24">
-        <v>0.9782293289642089</v>
+        <v>1.033935434585204</v>
       </c>
       <c r="F24">
-        <v>0.9835063867530269</v>
+        <v>1.042208587264188</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043840101460641</v>
+        <v>1.027028006865416</v>
       </c>
       <c r="J24">
-        <v>0.986923698374825</v>
+        <v>1.030846539708394</v>
       </c>
       <c r="K24">
-        <v>0.9851478751650554</v>
+        <v>1.029708766746392</v>
       </c>
       <c r="L24">
-        <v>0.992649861648263</v>
+        <v>1.037312716502033</v>
       </c>
       <c r="M24">
-        <v>0.9978294750779997</v>
+        <v>1.045557124852365</v>
       </c>
       <c r="N24">
-        <v>0.9883252432282476</v>
+        <v>1.032310460034531</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9690386883805252</v>
+        <v>1.026757404279123</v>
       </c>
       <c r="D25">
-        <v>0.9800271136928391</v>
+        <v>1.028217539173205</v>
       </c>
       <c r="E25">
-        <v>0.9878045091068886</v>
+        <v>1.035867765831303</v>
       </c>
       <c r="F25">
-        <v>0.9939679029036004</v>
+        <v>1.04429247234877</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044709841879737</v>
+        <v>1.027007475287657</v>
       </c>
       <c r="J25">
-        <v>0.9946549184820924</v>
+        <v>1.032405204722763</v>
       </c>
       <c r="K25">
-        <v>0.992943603434967</v>
+        <v>1.031294090211725</v>
       </c>
       <c r="L25">
-        <v>1.000595141274332</v>
+        <v>1.038920082161394</v>
       </c>
       <c r="M25">
-        <v>1.006660586750846</v>
+        <v>1.047318549225851</v>
       </c>
       <c r="N25">
-        <v>0.9960674425548508</v>
+        <v>1.033871338532001</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_221/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_221/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028494635305535</v>
+        <v>0.9776562064876057</v>
       </c>
       <c r="D2">
-        <v>1.029744293220024</v>
+        <v>0.987229309555508</v>
       </c>
       <c r="E2">
-        <v>1.037409224207617</v>
+        <v>0.9951046214978144</v>
       </c>
       <c r="F2">
-        <v>1.045952842655858</v>
+        <v>1.001931477871217</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.026982128717641</v>
+        <v>1.045308537838492</v>
       </c>
       <c r="J2">
-        <v>1.033646640152938</v>
+        <v>1.000526392189139</v>
       </c>
       <c r="K2">
-        <v>1.032557315927483</v>
+        <v>0.998869474956857</v>
       </c>
       <c r="L2">
-        <v>1.040200191076355</v>
+        <v>1.006632580676712</v>
       </c>
       <c r="M2">
-        <v>1.048719638666159</v>
+        <v>1.013363969566548</v>
       </c>
       <c r="N2">
-        <v>1.035114536942882</v>
+        <v>1.001947254428029</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C3">
-        <v>1.029756007235823</v>
+        <v>0.9836900231549197</v>
       </c>
       <c r="D3">
-        <v>1.030853427006506</v>
+        <v>0.9922870754838579</v>
       </c>
       <c r="E3">
-        <v>1.038528627343567</v>
+        <v>1.000229344682755</v>
       </c>
       <c r="F3">
-        <v>1.047157444064425</v>
+        <v>1.007514440286089</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.026958505582768</v>
+        <v>1.045689703852671</v>
       </c>
       <c r="J3">
-        <v>1.034547047154769</v>
+        <v>1.004635410175462</v>
       </c>
       <c r="K3">
-        <v>1.033473849825907</v>
+        <v>1.003019605244597</v>
       </c>
       <c r="L3">
-        <v>1.041128576365803</v>
+        <v>1.010859291841696</v>
       </c>
       <c r="M3">
-        <v>1.049734762505478</v>
+        <v>1.01805206691984</v>
       </c>
       <c r="N3">
-        <v>1.036016222625933</v>
+        <v>1.006062107691203</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030572211910802</v>
+        <v>0.987498856086397</v>
       </c>
       <c r="D4">
-        <v>1.031571387647306</v>
+        <v>0.9954861486546609</v>
       </c>
       <c r="E4">
-        <v>1.039253043647128</v>
+        <v>1.003469838270518</v>
       </c>
       <c r="F4">
-        <v>1.047936460196186</v>
+        <v>1.011041081561</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.026940799041256</v>
+        <v>1.045912020327254</v>
       </c>
       <c r="J4">
-        <v>1.035129224846839</v>
+        <v>1.007227839870407</v>
       </c>
       <c r="K4">
-        <v>1.03406660368445</v>
+        <v>1.005639358916409</v>
       </c>
       <c r="L4">
-        <v>1.041728809471719</v>
+        <v>1.013526565022164</v>
       </c>
       <c r="M4">
-        <v>1.050390608920692</v>
+        <v>1.021008052111464</v>
       </c>
       <c r="N4">
-        <v>1.036599227077103</v>
+        <v>1.008658218933671</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030915349706467</v>
+        <v>0.9890783160152773</v>
       </c>
       <c r="D5">
-        <v>1.031873285871108</v>
+        <v>0.9968142057134112</v>
       </c>
       <c r="E5">
-        <v>1.039557610383361</v>
+        <v>1.004814853741783</v>
       </c>
       <c r="F5">
-        <v>1.048263853896648</v>
+        <v>1.012503981887742</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.026932774768032</v>
+        <v>1.045999719583305</v>
       </c>
       <c r="J5">
-        <v>1.0353738668146</v>
+        <v>1.008302487936777</v>
       </c>
       <c r="K5">
-        <v>1.034315725586305</v>
+        <v>1.006725663410597</v>
       </c>
       <c r="L5">
-        <v>1.041981030161588</v>
+        <v>1.014632362048767</v>
       </c>
       <c r="M5">
-        <v>1.050666086534226</v>
+        <v>1.022232925564413</v>
       </c>
       <c r="N5">
-        <v>1.036844216464519</v>
+        <v>1.009734393123559</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030972964433163</v>
+        <v>0.9893422674745544</v>
       </c>
       <c r="D6">
-        <v>1.031923979910697</v>
+        <v>0.9970362274193614</v>
       </c>
       <c r="E6">
-        <v>1.039608749808981</v>
+        <v>1.005039696215878</v>
       </c>
       <c r="F6">
-        <v>1.048318818630509</v>
+        <v>1.012748478261913</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.026931393393354</v>
+        <v>1.046014108417652</v>
       </c>
       <c r="J6">
-        <v>1.035414937123782</v>
+        <v>1.008482053193607</v>
       </c>
       <c r="K6">
-        <v>1.034357550072004</v>
+        <v>1.00690719567928</v>
       </c>
       <c r="L6">
-        <v>1.042023372275737</v>
+        <v>1.014817138839273</v>
       </c>
       <c r="M6">
-        <v>1.050712326373008</v>
+        <v>1.02243756262581</v>
       </c>
       <c r="N6">
-        <v>1.036885345098252</v>
+        <v>1.009914213383651</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C7">
-        <v>1.03057679691093</v>
+        <v>0.9875200450897086</v>
       </c>
       <c r="D7">
-        <v>1.031575421359072</v>
+        <v>0.9955039593457669</v>
       </c>
       <c r="E7">
-        <v>1.039257113194444</v>
+        <v>1.003487877345539</v>
       </c>
       <c r="F7">
-        <v>1.047940835256951</v>
+        <v>1.011060705206601</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.026940694102428</v>
+        <v>1.045913214734819</v>
       </c>
       <c r="J7">
-        <v>1.035132494177989</v>
+        <v>1.007242258263164</v>
       </c>
       <c r="K7">
-        <v>1.034069932744272</v>
+        <v>1.005653932401281</v>
       </c>
       <c r="L7">
-        <v>1.041732180116628</v>
+        <v>1.013541400868727</v>
       </c>
       <c r="M7">
-        <v>1.050394290809066</v>
+        <v>1.021024488020613</v>
       </c>
       <c r="N7">
-        <v>1.036602501051078</v>
+        <v>1.0086726578022</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.028920920619624</v>
+        <v>0.9797157987871171</v>
       </c>
       <c r="D8">
-        <v>1.030119073608446</v>
+        <v>0.9889543488832003</v>
       </c>
       <c r="E8">
-        <v>1.037787514286764</v>
+        <v>0.9968526847239705</v>
       </c>
       <c r="F8">
-        <v>1.046360035381099</v>
+        <v>1.003836594407244</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.026974645872505</v>
+        <v>1.045442429060535</v>
       </c>
       <c r="J8">
-        <v>1.033951029955483</v>
+        <v>1.001929223592197</v>
       </c>
       <c r="K8">
-        <v>1.032867126674882</v>
+        <v>1.000286048921535</v>
       </c>
       <c r="L8">
-        <v>1.040514046184984</v>
+        <v>1.008075457851584</v>
       </c>
       <c r="M8">
-        <v>1.049062913401597</v>
+        <v>1.01496484617637</v>
       </c>
       <c r="N8">
-        <v>1.035419359013861</v>
+        <v>1.003352078012586</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.026003048490246</v>
+        <v>0.9651801992732649</v>
       </c>
       <c r="D9">
-        <v>1.027554866008168</v>
+        <v>0.9768104404850292</v>
       </c>
       <c r="E9">
-        <v>1.035198512425166</v>
+        <v>0.9845433150854646</v>
       </c>
       <c r="F9">
-        <v>1.043571035760224</v>
+        <v>0.9904067196408324</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027015971983489</v>
+        <v>1.044423553372564</v>
       </c>
       <c r="J9">
-        <v>1.031865670099288</v>
+        <v>0.9920254272758634</v>
       </c>
       <c r="K9">
-        <v>1.030745241268708</v>
+        <v>0.9902913012225235</v>
       </c>
       <c r="L9">
-        <v>1.038363706976997</v>
+        <v>0.9978922450504479</v>
       </c>
       <c r="M9">
-        <v>1.046709112046345</v>
+        <v>1.003657382609019</v>
       </c>
       <c r="N9">
-        <v>1.033331037707476</v>
+        <v>0.9934342171695016</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.024057648894561</v>
+        <v>0.9548825412326714</v>
       </c>
       <c r="D10">
-        <v>1.025846698304632</v>
+        <v>0.9682502477061488</v>
       </c>
       <c r="E10">
-        <v>1.033472851991469</v>
+        <v>0.9758628853481505</v>
       </c>
       <c r="F10">
-        <v>1.041709328632811</v>
+        <v>0.9809184713283988</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027031135448596</v>
+        <v>1.043612358195168</v>
       </c>
       <c r="J10">
-        <v>1.030473019687299</v>
+        <v>0.9850080774150987</v>
       </c>
       <c r="K10">
-        <v>1.029328970030086</v>
+        <v>0.9832174333530254</v>
       </c>
       <c r="L10">
-        <v>1.036927504133633</v>
+        <v>0.9906820609548322</v>
       </c>
       <c r="M10">
-        <v>1.045134651707326</v>
+        <v>0.9956410126064282</v>
       </c>
       <c r="N10">
-        <v>1.031936409572162</v>
+        <v>0.9864069018670337</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.023215200068402</v>
+        <v>0.9502591819397219</v>
       </c>
       <c r="D11">
-        <v>1.02510733282491</v>
+        <v>0.9644186296251733</v>
       </c>
       <c r="E11">
-        <v>1.032725685099837</v>
+        <v>0.9719768357740717</v>
       </c>
       <c r="F11">
-        <v>1.040902609248143</v>
+        <v>0.976666901368617</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027034773977178</v>
+        <v>1.043228609095596</v>
       </c>
       <c r="J11">
-        <v>1.029869396833032</v>
+        <v>0.9818583325945909</v>
       </c>
       <c r="K11">
-        <v>1.028715292661357</v>
+        <v>0.9800442701216934</v>
       </c>
       <c r="L11">
-        <v>1.036304969680405</v>
+        <v>0.9874473111265401</v>
       </c>
       <c r="M11">
-        <v>1.044451632662756</v>
+        <v>0.9920426813764782</v>
       </c>
       <c r="N11">
-        <v>1.031331929504206</v>
+        <v>0.9832526840476</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.022902262387607</v>
+        <v>0.9485152190529679</v>
       </c>
       <c r="D12">
-        <v>1.024832740238272</v>
+        <v>0.9629752045520258</v>
       </c>
       <c r="E12">
-        <v>1.032448160751356</v>
+        <v>0.9705128360489573</v>
       </c>
       <c r="F12">
-        <v>1.040602867859209</v>
+        <v>0.9750646441611931</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027035686501887</v>
+        <v>1.043081070197118</v>
       </c>
       <c r="J12">
-        <v>1.029645093230966</v>
+        <v>0.9806704571331614</v>
       </c>
       <c r="K12">
-        <v>1.028487280471654</v>
+        <v>0.9788478623670186</v>
       </c>
       <c r="L12">
-        <v>1.036073633677478</v>
+        <v>0.9862276403854575</v>
       </c>
       <c r="M12">
-        <v>1.044197737330244</v>
+        <v>0.9906856828737088</v>
       </c>
       <c r="N12">
-        <v>1.031107307365296</v>
+        <v>0.9820631216667642</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.022969389294246</v>
+        <v>0.9488905439577263</v>
       </c>
       <c r="D13">
-        <v>1.024891639467976</v>
+        <v>0.96328576205072</v>
       </c>
       <c r="E13">
-        <v>1.032507690389141</v>
+        <v>0.9708278230107125</v>
       </c>
       <c r="F13">
-        <v>1.040667167497579</v>
+        <v>0.9754094024807427</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027035510614369</v>
+        <v>1.043112945913607</v>
       </c>
       <c r="J13">
-        <v>1.029693211268479</v>
+        <v>0.9809260922251545</v>
       </c>
       <c r="K13">
-        <v>1.028536192831676</v>
+        <v>0.9791053199962614</v>
       </c>
       <c r="L13">
-        <v>1.036123260538399</v>
+        <v>0.9864901055493863</v>
       </c>
       <c r="M13">
-        <v>1.044252207433541</v>
+        <v>0.9909777100650612</v>
       </c>
       <c r="N13">
-        <v>1.031155493735943</v>
+        <v>0.9823191197899093</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.023189332858654</v>
+        <v>0.9501155808365962</v>
       </c>
       <c r="D14">
-        <v>1.025084634096511</v>
+        <v>0.9642997362224598</v>
       </c>
       <c r="E14">
-        <v>1.032702744723347</v>
+        <v>0.9718562489356063</v>
       </c>
       <c r="F14">
-        <v>1.040877834374252</v>
+        <v>0.9765349376146745</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027034858357287</v>
+        <v>1.04321651613759</v>
       </c>
       <c r="J14">
-        <v>1.029850857697288</v>
+        <v>0.9817605154628831</v>
       </c>
       <c r="K14">
-        <v>1.028696446439765</v>
+        <v>0.979945744264185</v>
       </c>
       <c r="L14">
-        <v>1.036285849402063</v>
+        <v>0.9873468702497111</v>
       </c>
       <c r="M14">
-        <v>1.044430649512182</v>
+        <v>0.9919309360106068</v>
       </c>
       <c r="N14">
-        <v>1.031313364040763</v>
+        <v>0.9831547280043456</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.023324845314153</v>
+        <v>0.9508667747875011</v>
       </c>
       <c r="D15">
-        <v>1.025203549793659</v>
+        <v>0.9649217589911364</v>
       </c>
       <c r="E15">
-        <v>1.032822924975505</v>
+        <v>0.9724871286749053</v>
       </c>
       <c r="F15">
-        <v>1.041007621231541</v>
+        <v>0.9772253160936702</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027034398334308</v>
+        <v>1.043279663321619</v>
       </c>
       <c r="J15">
-        <v>1.029947976731006</v>
+        <v>0.9822722181613924</v>
       </c>
       <c r="K15">
-        <v>1.028795175303468</v>
+        <v>0.9804611666967132</v>
       </c>
       <c r="L15">
-        <v>1.036386012606237</v>
+        <v>0.9878723092201164</v>
       </c>
       <c r="M15">
-        <v>1.044540568133455</v>
+        <v>0.9925155030256596</v>
       </c>
       <c r="N15">
-        <v>1.031410620994648</v>
+        <v>0.9836671573793796</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.024113557553223</v>
+        <v>0.9551857532894615</v>
       </c>
       <c r="D16">
-        <v>1.025895773356799</v>
+        <v>0.9685017886273839</v>
       </c>
       <c r="E16">
-        <v>1.033522440026956</v>
+        <v>0.9761179887532446</v>
       </c>
       <c r="F16">
-        <v>1.041762855421732</v>
+        <v>0.9811974914208534</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027030832365333</v>
+        <v>1.043637132131449</v>
       </c>
       <c r="J16">
-        <v>1.030513067449685</v>
+        <v>0.9852146720114471</v>
       </c>
       <c r="K16">
-        <v>1.02936968873603</v>
+        <v>0.9834256050163226</v>
       </c>
       <c r="L16">
-        <v>1.036968805893698</v>
+        <v>0.9908942657671012</v>
       </c>
       <c r="M16">
-        <v>1.045179954624613</v>
+        <v>0.995877033400293</v>
       </c>
       <c r="N16">
-        <v>1.031976514206965</v>
+        <v>0.9866137898514058</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.0246082729397</v>
+        <v>0.9578496086541096</v>
       </c>
       <c r="D17">
-        <v>1.026330061280549</v>
+        <v>0.9707130269704245</v>
       </c>
       <c r="E17">
-        <v>1.033961241038419</v>
+        <v>0.9783604771118322</v>
       </c>
       <c r="F17">
-        <v>1.042236435375054</v>
+        <v>0.9836497828765457</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027027812371069</v>
+        <v>1.043852584979271</v>
       </c>
       <c r="J17">
-        <v>1.030867373189134</v>
+        <v>0.987029806844539</v>
       </c>
       <c r="K17">
-        <v>1.029729951567668</v>
+        <v>0.9852548176316915</v>
       </c>
       <c r="L17">
-        <v>1.037334201901263</v>
+        <v>0.9927588707892947</v>
       </c>
       <c r="M17">
-        <v>1.045580684701939</v>
+        <v>0.9979506954058381</v>
       </c>
       <c r="N17">
-        <v>1.032331323101203</v>
+        <v>0.9884315023841594</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.024896824734028</v>
+        <v>0.9593876688578168</v>
       </c>
       <c r="D18">
-        <v>1.026583401447354</v>
+        <v>0.9719908468090115</v>
       </c>
       <c r="E18">
-        <v>1.034217191707769</v>
+        <v>0.9796562960847837</v>
       </c>
       <c r="F18">
-        <v>1.042512609932154</v>
+        <v>0.9850664677364055</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027025768358815</v>
+        <v>1.043975127953223</v>
       </c>
       <c r="J18">
-        <v>1.031073976336591</v>
+        <v>0.9880779046807538</v>
       </c>
       <c r="K18">
-        <v>1.029940046119396</v>
+        <v>0.9863112279225712</v>
       </c>
       <c r="L18">
-        <v>1.037547268677735</v>
+        <v>0.9938356779362416</v>
       </c>
       <c r="M18">
-        <v>1.045814301583703</v>
+        <v>0.999148050330256</v>
       </c>
       <c r="N18">
-        <v>1.032538219648827</v>
+        <v>0.9894810886395202</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.024995212286415</v>
+        <v>0.9599094967668838</v>
       </c>
       <c r="D19">
-        <v>1.02666978859204</v>
+        <v>0.9724245627008543</v>
       </c>
       <c r="E19">
-        <v>1.034304465247008</v>
+        <v>0.9800961104895484</v>
       </c>
       <c r="F19">
-        <v>1.042606768762347</v>
+        <v>0.9855472419469014</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027025023461371</v>
+        <v>1.044016384851922</v>
       </c>
       <c r="J19">
-        <v>1.031144412984824</v>
+        <v>0.9884335092713988</v>
       </c>
       <c r="K19">
-        <v>1.030011676083092</v>
+        <v>0.9866696837751057</v>
       </c>
       <c r="L19">
-        <v>1.037619908379397</v>
+        <v>0.9942010467772184</v>
       </c>
       <c r="M19">
-        <v>1.04589393821417</v>
+        <v>0.999554289672592</v>
       </c>
       <c r="N19">
-        <v>1.03260875632518</v>
+        <v>0.9898371982294727</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.024555195440593</v>
+        <v>0.9575654417390383</v>
       </c>
       <c r="D20">
-        <v>1.026283463479275</v>
+        <v>0.97047702866532</v>
       </c>
       <c r="E20">
-        <v>1.033914161290414</v>
+        <v>0.9781211496135834</v>
       </c>
       <c r="F20">
-        <v>1.042185630596673</v>
+        <v>0.9833881024007936</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027028165602469</v>
+        <v>1.0438297931666</v>
       </c>
       <c r="J20">
-        <v>1.030829365486001</v>
+        <v>0.9868361689601529</v>
       </c>
       <c r="K20">
-        <v>1.029691302993788</v>
+        <v>0.9850596588212429</v>
       </c>
       <c r="L20">
-        <v>1.037295004847296</v>
+        <v>0.992559940267448</v>
       </c>
       <c r="M20">
-        <v>1.045537702806141</v>
+        <v>0.9977294796790778</v>
       </c>
       <c r="N20">
-        <v>1.032293261422772</v>
+        <v>0.988237589511767</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.02312456538987</v>
+        <v>0.94975559003774</v>
       </c>
       <c r="D21">
-        <v>1.025027800880042</v>
+        <v>0.9640017155309341</v>
       </c>
       <c r="E21">
-        <v>1.032645305911632</v>
+        <v>0.9715539824027081</v>
       </c>
       <c r="F21">
-        <v>1.04081580072383</v>
+        <v>0.976204144546144</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027035062542446</v>
+        <v>1.043186156225108</v>
       </c>
       <c r="J21">
-        <v>1.029804437284025</v>
+        <v>0.9815153036709956</v>
       </c>
       <c r="K21">
-        <v>1.028649257556139</v>
+        <v>0.9796987606564801</v>
       </c>
       <c r="L21">
-        <v>1.036237973778487</v>
+        <v>0.987095085491339</v>
       </c>
       <c r="M21">
-        <v>1.044378108068063</v>
+        <v>0.9916508095328787</v>
       </c>
       <c r="N21">
-        <v>1.031266877705188</v>
+        <v>0.9829091679835874</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.02222498510771</v>
+        <v>0.9446899743980004</v>
       </c>
       <c r="D22">
-        <v>1.024238550412036</v>
+        <v>0.9598128017830908</v>
       </c>
       <c r="E22">
-        <v>1.031847564140198</v>
+        <v>0.9673052546214285</v>
       </c>
       <c r="F22">
-        <v>1.039954013453757</v>
+        <v>0.9715531569647728</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027036859474112</v>
+        <v>1.042752496817057</v>
       </c>
       <c r="J22">
-        <v>1.029159495780375</v>
+        <v>0.9780654906488813</v>
       </c>
       <c r="K22">
-        <v>1.027993704835483</v>
+        <v>0.9762247446798942</v>
       </c>
       <c r="L22">
-        <v>1.035572802944274</v>
+        <v>0.9835534680097071</v>
       </c>
       <c r="M22">
-        <v>1.043647915390114</v>
+        <v>0.9877100291813848</v>
       </c>
       <c r="N22">
-        <v>1.030621020310627</v>
+        <v>0.9794544558312822</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.022701878816376</v>
+        <v>0.9473907713242906</v>
       </c>
       <c r="D23">
-        <v>1.024656925384118</v>
+        <v>0.9620450831944599</v>
       </c>
       <c r="E23">
-        <v>1.032270459095257</v>
+        <v>0.9695694400620971</v>
       </c>
       <c r="F23">
-        <v>1.04041091308833</v>
+        <v>0.9740320030495687</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027036147328315</v>
+        <v>1.042985176407007</v>
       </c>
       <c r="J23">
-        <v>1.029501442119508</v>
+        <v>0.9799046339514782</v>
       </c>
       <c r="K23">
-        <v>1.028341262046446</v>
+        <v>0.9780766237510538</v>
       </c>
       <c r="L23">
-        <v>1.03592547743583</v>
+        <v>0.9854413969075497</v>
       </c>
       <c r="M23">
-        <v>1.044035109926381</v>
+        <v>0.9898108518546713</v>
       </c>
       <c r="N23">
-        <v>1.030963452252783</v>
+        <v>0.9812962109283216</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.024579178900318</v>
+        <v>0.9576938929768377</v>
       </c>
       <c r="D24">
-        <v>1.026304518935384</v>
+        <v>0.9705837029908376</v>
       </c>
       <c r="E24">
-        <v>1.033935434585204</v>
+        <v>0.9782293289642087</v>
       </c>
       <c r="F24">
-        <v>1.042208587264188</v>
+        <v>0.9835063867530268</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027028006865416</v>
+        <v>1.043840101460641</v>
       </c>
       <c r="J24">
-        <v>1.030846539708394</v>
+        <v>0.9869236983748245</v>
       </c>
       <c r="K24">
-        <v>1.029708766746392</v>
+        <v>0.9851478751650552</v>
       </c>
       <c r="L24">
-        <v>1.037312716502033</v>
+        <v>0.9926498616482627</v>
       </c>
       <c r="M24">
-        <v>1.045557124852365</v>
+        <v>0.9978294750779996</v>
       </c>
       <c r="N24">
-        <v>1.032310460034531</v>
+        <v>0.9883252432282473</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.026757404279123</v>
+        <v>0.9690386883805254</v>
       </c>
       <c r="D25">
-        <v>1.028217539173205</v>
+        <v>0.9800271136928396</v>
       </c>
       <c r="E25">
-        <v>1.035867765831303</v>
+        <v>0.9878045091068886</v>
       </c>
       <c r="F25">
-        <v>1.04429247234877</v>
+        <v>0.9939679029036004</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027007475287657</v>
+        <v>1.044709841879737</v>
       </c>
       <c r="J25">
-        <v>1.032405204722763</v>
+        <v>0.9946549184820925</v>
       </c>
       <c r="K25">
-        <v>1.031294090211725</v>
+        <v>0.9929436034349675</v>
       </c>
       <c r="L25">
-        <v>1.038920082161394</v>
+        <v>1.000595141274332</v>
       </c>
       <c r="M25">
-        <v>1.047318549225851</v>
+        <v>1.006660586750845</v>
       </c>
       <c r="N25">
-        <v>1.033871338532001</v>
+        <v>0.996067442554851</v>
       </c>
     </row>
   </sheetData>
